--- a/castle_level_1.xlsx
+++ b/castle_level_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\C++ Projects\castle2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4A7E12-2690-4BA1-B2DF-0A1EDE0B6ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA52DD2-C08E-40C8-AB52-C142C7B1535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="6870" windowWidth="21600" windowHeight="13185" xr2:uid="{78F35DAF-77DF-4856-BA13-D4A6793299ED}"/>
+    <workbookView xWindow="1005" yWindow="420" windowWidth="21600" windowHeight="13185" xr2:uid="{78F35DAF-77DF-4856-BA13-D4A6793299ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>&lt;&gt;</t>
   </si>
@@ -36,9 +36,6 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>&lt;|&gt;S</t>
-  </si>
-  <si>
     <t>&lt;|</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>&lt;^|&gt;</t>
   </si>
   <si>
-    <t>&lt;&gt;L1&gt;</t>
-  </si>
-  <si>
     <t>&lt;^L2X</t>
   </si>
   <si>
@@ -82,6 +76,21 @@
   </si>
   <si>
     <t>&lt;</t>
+  </si>
+  <si>
+    <t>|^&gt;</t>
+  </si>
+  <si>
+    <t>&gt;^</t>
+  </si>
+  <si>
+    <t>&lt;|^</t>
+  </si>
+  <si>
+    <t>B1N</t>
+  </si>
+  <si>
+    <t>&lt;^L1&gt;</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +476,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,13 +518,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -522,7 +538,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -541,16 +557,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -560,88 +576,90 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -651,7 +669,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
